--- a/CashFlow/AKAM_cashflow.xlsx
+++ b/CashFlow/AKAM_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>502000000.0</v>
+        <v>39211000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>522000000.0</v>
+        <v>88028000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>430348000.0</v>
+        <v>14156000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>308925000.0</v>
+        <v>66677000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>109559000.0</v>
+        <v>8769000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>4876000.0</v>
